--- a/wwwroot/uploads/TemplateForm/TemplatePermissionRequest.xlsx
+++ b/wwwroot/uploads/TemplateForm/TemplatePermissionRequest.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\.NET\DHR\wwwroot\uploads\TemplateForm\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222E4A3D-E632-47B3-ACFC-8EBB7098339B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8FB28A34-E0C9-4C1E-A4BA-A7FA4E24666A}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Permission" sheetId="1" r:id="rId1"/>
     <sheet name="Example" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -90,9 +84,6 @@
     <t>Izin Terlambat</t>
   </si>
   <si>
-    <t>Izin Keluar Kantor</t>
-  </si>
-  <si>
     <t>Potong Cuti</t>
   </si>
   <si>
@@ -127,13 +118,16 @@
   </si>
   <si>
     <t>001/SPC/1238</t>
+  </si>
+  <si>
+    <t>Alpha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,33 +491,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B0EA6C-6AF5-4268-B7FB-85C6146C027A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -554,11 +548,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G44" xr:uid="{8ECEC5EA-F0D9-4011-9FD8-8392BEBDF54B}">
-      <formula1>"Izin Terlambat, Izin Tidak Masuk Kerja, Izin Pulang Cepat, Izin Keluar Kantor"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H87">
+      <formula1>"Potong Cuti, Potong Gaji, Dispensasi"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H87" xr:uid="{F0CACF02-8475-4455-970F-B612EB92A465}">
-      <formula1>"Potong Cuti, Potong Gaji, Dispensasi"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G217">
+      <formula1>"Izin Terlambat, Izin Tidak Masuk Kerja, Izin Pulang Cepat, Izin Keluar Kantor, Alpha"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -566,27 +560,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A72102-4556-4C83-BF95-89A9C528980D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -615,7 +609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -635,16 +629,16 @@
         <v>0.5</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -655,7 +649,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1">
         <v>45668</v>
@@ -664,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -684,7 +678,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1">
         <v>45669</v>
@@ -693,16 +687,16 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
@@ -713,7 +707,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1">
         <v>45670</v>
@@ -725,13 +719,13 @@
         <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
@@ -742,7 +736,7 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1">
         <v>45671</v>
@@ -754,20 +748,20 @@
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G6" xr:uid="{48D7B8B9-5391-45DA-9825-AEBB70B87144}">
-      <formula1>"Izin Terlambat, Izin Tidak Masuk Kerja, Izin Pulang Cepat, Izin Keluar Kantor"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H6">
+      <formula1>"Potong Gaji, Potong Cuti, Dispensasi"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H6" xr:uid="{3F9D6E30-1ABE-44FA-89A8-99A8C8B8891B}">
-      <formula1>"Potong Gaji, Potong Cuti, Dispensasi"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G18">
+      <formula1>"Izin Terlambat, Izin Tidak Masuk Kerja, Izin Pulang Cepat, Izin Keluar Kantor, Alpha"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/wwwroot/uploads/TemplateForm/TemplatePermissionRequest.xlsx
+++ b/wwwroot/uploads/TemplateForm/TemplatePermissionRequest.xlsx
@@ -120,7 +120,7 @@
     <t>001/SPC/1238</t>
   </si>
   <si>
-    <t>Alpha</t>
+    <t>Izin Tidak Masuk Kerja</t>
   </si>
 </sst>
 </file>
@@ -491,7 +491,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -502,7 +502,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -551,8 +551,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H87">
       <formula1>"Potong Cuti, Potong Gaji, Dispensasi"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G217">
-      <formula1>"Izin Terlambat, Izin Tidak Masuk Kerja, Izin Pulang Cepat, Izin Keluar Kantor, Alpha"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+      <formula1>"Izin Terlambat, Izin Tidak Masuk Kerja, Izin Pulang Cepat, Izin Keluar Kantor"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -564,7 +564,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -687,7 +687,7 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
         <v>19</v>
@@ -760,8 +760,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H6">
       <formula1>"Potong Gaji, Potong Cuti, Dispensasi"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G18">
-      <formula1>"Izin Terlambat, Izin Tidak Masuk Kerja, Izin Pulang Cepat, Izin Keluar Kantor, Alpha"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+      <formula1>"Izin Terlambat, Izin Tidak Masuk Kerja, Izin Pulang Cepat, Izin Keluar Kantor"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
